--- a/data/trans_camb/P24_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,58</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>-0,78</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -724,12 +802,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 5,62</t>
+          <t>-0,29; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,76</t>
+          <t>-1,04; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,47 +817,77 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,49</t>
+          <t>-1,02; 3,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,61</t>
+          <t>1,4; 14,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,07</t>
+          <t>-3,42; 10,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 0,98</t>
+          <t>-6,38; 1,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,48</t>
+          <t>-6,29; 1,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 3,26</t>
+          <t>-6,49; 0,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,33</t>
+          <t>-4,85; 3,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,34</t>
+          <t>-2,26; 7,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 7,05</t>
+          <t>-6,9; 4,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 2,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 0,77</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 2,04</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 2,48</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 8,89</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 6,31</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>351,67%</t>
+          <t>345,13%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>113,18%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>293,67%</t>
+          <t>278,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>803,98%</t>
+          <t>113,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,68%</t>
+          <t>591,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>63,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-57,41%</t>
+          <t>-56,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>-52,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>-60,46%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-34,62%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-17,59%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>131,77%</t>
+          <t>-11,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-10,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-42,14%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-22,0%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>190,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
         </is>
       </c>
     </row>
@@ -880,42 +1018,72 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-88,79; 227,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-90,49; 90,22</t>
+          <t>-59,88; 555,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 78,44</t>
+          <t>-90,99; 134,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 323,21</t>
+          <t>-89,73; 81,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,21; 286,83</t>
+          <t>-92,49; 127,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-84,47; 122,92</t>
+          <t>-77,57; 187,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-78,17; 192,16</t>
+          <t>-52,69; 551,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 479,14</t>
+          <t>-70,84; 148,44</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-69,08; 179,48</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-85,19; 87,13</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-82,81; 173,44</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-71,53; 232,7</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 802,91</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-48,89; 183,4</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>4,61</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,23</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 7,44</t>
+          <t>-0,41; 7,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 5,6</t>
+          <t>-1,76; 4,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 6,55</t>
+          <t>-0,51; 6,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 7,04</t>
+          <t>0,14; 11,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,5</t>
+          <t>-7,74; 5,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,01</t>
+          <t>-3,97; 8,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,65</t>
+          <t>-3,92; 2,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 1,97</t>
+          <t>-1,1; 7,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,72</t>
+          <t>-3,66; 2,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,17</t>
+          <t>-0,53; 8,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,58</t>
+          <t>-4,91; 6,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,65</t>
+          <t>0,35; 10,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 3,96</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 5,45</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 4,04</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 8,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 3,77</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 7,44</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>127,76%</t>
+          <t>127,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>58,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>108,28%</t>
+          <t>117,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>216,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>41,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>-19,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,0%</t>
+          <t>96,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43,45%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>78,97%</t>
+          <t>112,22%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,31%</t>
+          <t>213,77%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>45,6%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>79,17%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>49,5%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>158,72%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-7,89%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>98,02%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,17; 689,33</t>
+          <t>-29,76; 914,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 608,23</t>
+          <t>-62,42; 564,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,99; 677,11</t>
+          <t>-33,82; 745,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-65,44; 786,84</t>
+          <t>-17,04; 1073,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,09; 162,18</t>
+          <t>-70,07; 153,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 402,89</t>
+          <t>-61,64; 582,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,92; 177,93</t>
+          <t>-80,71; 228,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,73; 138,76</t>
+          <t>-30,6; 390,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,43; 222,43</t>
+          <t>-77,52; 158,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 277,84</t>
+          <t>-20,08; 464,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 204,26</t>
+          <t>-56,96; 156,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-53,54; 200,21</t>
+          <t>-27,85; 1101,27</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-38,46; 245,54</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; 313,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-33,21; 224,15</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>25,3; 433,56</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-51,35; 71,95</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-21,77; 379,35</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 3,32</t>
+          <t>-3,82; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,27</t>
+          <t>-4,06; 3,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 2,52</t>
+          <t>-4,15; 2,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,54</t>
+          <t>-2,47; 5,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 2,06</t>
+          <t>-3,99; 5,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,94</t>
+          <t>-0,96; 7,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,83</t>
+          <t>-5,47; 2,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,13</t>
+          <t>-3,84; 3,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 1,51</t>
+          <t>-5,37; 0,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,59</t>
+          <t>-1,91; 7,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 0,85</t>
+          <t>-7,86; 2,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 2,13</t>
+          <t>-5,31; 3,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 2,14</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 2,38</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 0,87</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 5,08</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 2,29</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 4,21</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,9%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,33%</t>
+          <t>-9,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,08%</t>
+          <t>-9,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,11%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,43%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-38,41%</t>
+          <t>-22,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>-40,96%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-28,09%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-9,72%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-9,69%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-0,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-28,04%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>37,33%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 132,32</t>
+          <t>-59,92; 149,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 135,98</t>
+          <t>-64,49; 126,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,74; 103,43</t>
+          <t>-64,52; 127,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 105,46</t>
+          <t>-44,6; 219,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-64,7; 53,38</t>
+          <t>-52,99; 160,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 103,4</t>
+          <t>-29,51; 464,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-72,59; 28,31</t>
+          <t>-65,47; 57,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 122,66</t>
+          <t>-49,85; 83,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 40,23</t>
+          <t>-70,18; 27,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 67,53</t>
+          <t>-28,63; 182,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-59,77; 21,79</t>
+          <t>-68,03; 53,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-48,42; 57,14</t>
+          <t>-59,16; 84,25</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-50,21; 57,43</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-39,4; 67,74</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-57,49; 23,85</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-24,21; 128,12</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-53,74; 41,51</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-31,87; 116,91</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,9</t>
+          <t>-7,56; 6,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 6,28</t>
+          <t>-5,4; 6,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 2,56</t>
+          <t>-8,2; 2,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 7,7</t>
+          <t>-4,79; 8,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 1,49</t>
+          <t>-2,75; 8,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,52</t>
+          <t>-2,88; 9,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 3,94</t>
+          <t>-6,5; 1,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 11,11</t>
+          <t>-4,22; 4,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 2,01</t>
+          <t>-4,73; 3,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,15</t>
+          <t>-1,24; 8,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 2,04</t>
+          <t>-2,02; 9,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,11</t>
+          <t>-4,65; 8,33</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-5,26; 2,39</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 3,98</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 2,05</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 7,11</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 7,73</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 7,27</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,61%</t>
+          <t>-2,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-19,59%</t>
+          <t>-17,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,64%</t>
+          <t>53,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,45%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>63,08%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-19,91%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-11,17%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>10,7%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-17,48%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-10,27%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>42,82%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>29,22%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-75,25; 167,59</t>
+          <t>-77,22; 154,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 169,16</t>
+          <t>-54,03; 165,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 73,18</t>
+          <t>-74,83; 87,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 197,22</t>
+          <t>-51,68; 219,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,97; 22,68</t>
+          <t>-23,33; 127,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 67,49</t>
+          <t>-26,42; 152,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-43,3; 59,93</t>
+          <t>-60,17; 26,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 156,51</t>
+          <t>-38,05; 62,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-52,82; 39,29</t>
+          <t>-42,49; 61,94</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 70,28</t>
+          <t>-16,66; 122,53</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 35,26</t>
+          <t>-14,52; 105,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 131,95</t>
+          <t>-27,05; 74,63</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-53,92; 42,32</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-30,33; 68,06</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-48,76; 34,88</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 117,92</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-11,78; 82,99</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 74,12</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>8,12</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>4,94</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>7,88</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>13,29</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 6,58</t>
+          <t>0,25; 7,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,62</t>
+          <t>5,28; 14,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,32; 13,01</t>
+          <t>5,01; 13,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,5</t>
+          <t>10,37; 21,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,51</t>
+          <t>-8,36; 7,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,43; 10,9</t>
+          <t>-4,44; 10,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,25; 12,74</t>
+          <t>2,23; 11,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,05; 20,02</t>
+          <t>2,65; 11,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,64</t>
+          <t>3,96; 12,8</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,95</t>
+          <t>6,19; 17,59</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,32</t>
+          <t>-0,06; 15,46</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 17,32</t>
+          <t>-2,11; 13,13</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,21; 7,92</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 10,98</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 11,54</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 17,42</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 9,25</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 9,2</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>160,3%</t>
+          <t>181,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>457,36%</t>
+          <t>476,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>429,53%</t>
+          <t>434,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>607,05%</t>
+          <t>789,73%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>232,58%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>243,84%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>301,78%</t>
+          <t>230,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>538,61%</t>
+          <t>241,56%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>204,28%</t>
+          <t>298,18%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>334,48%</t>
+          <t>419,76%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>356,54%</t>
+          <t>58,42%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>571,13%</t>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>211,19%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>341,08%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>356,29%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>575,28%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>26,05%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 744,9</t>
+          <t>-19,78; 879,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>113,45; 1449,88</t>
+          <t>116,24; 1651,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>86,74; 1431,19</t>
+          <t>102,26; 1510,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>149,39; 1920,41</t>
+          <t>278,99; 2423,64</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,29; 766,59</t>
+          <t>-38,87; 54,65</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>37,52; 878,16</t>
+          <t>-26,08; 106,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>80,4; 1146,87</t>
+          <t>36,19; 885,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>182,19; 1886,83</t>
+          <t>46,34; 864,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>59,28; 541,44</t>
+          <t>74,54; 926,61</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>135,27; 834,93</t>
+          <t>114,45; 1389,28</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>155,33; 855,89</t>
+          <t>-2,09; 153,87</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>270,41; 1241,42</t>
+          <t>-10,86; 99,87</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>54,98; 554,81</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>129,43; 799,14</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>124,26; 844,37</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>270,94; 1254,7</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 72,77</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-11,04; 71,58</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>11,83</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5,15</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>15,76</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>20,33</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,05</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
           <t>3,12</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,94</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>12,72</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>16,79</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,94</t>
+          <t>-1,74; 6,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,35</t>
+          <t>-0,67; 8,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 8,15</t>
+          <t>-0,77; 7,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,77</t>
+          <t>2,18; 16,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 10,71</t>
+          <t>-1,75; 16,07</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 8,31</t>
+          <t>3,91; 20,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 10,89</t>
+          <t>0,12; 12,25</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 11,66</t>
+          <t>-1,77; 8,61</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,25</t>
+          <t>-0,88; 13,19</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,59</t>
+          <t>8,31; 25,06</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,35</t>
+          <t>-5,64; 19,54</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,34</t>
+          <t>10,03; 30,68</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 9,02</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 6,86</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 9,88</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>7,32; 19,96</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 15,57</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>10,11; 24,4</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>52,26%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>78,45%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>213,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>50,17%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,97%</t>
+          <t>149,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>37,32%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>58,18%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>41,66%</t>
+          <t>177,88%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>31,95%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>167,14%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>59,05%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>45,53%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>64,98%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>185,6%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>38,72%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>162,08%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 259,68</t>
+          <t>-35,74; 285,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 394,79</t>
+          <t>-20,02; 363,71</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,91; 400,47</t>
+          <t>-15,72; 313,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 393,14</t>
+          <t>30,34; 599,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 162,24</t>
+          <t>-12,02; 189,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 123,65</t>
+          <t>25,29; 415,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 173,33</t>
+          <t>-0,93; 185,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 175,33</t>
+          <t>-17,89; 129,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 129,3</t>
+          <t>-10,47; 175,06</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 116,5</t>
+          <t>68,98; 345,37</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 125,43</t>
+          <t>-19,51; 103,22</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 157,4</t>
+          <t>48,0; 373,9</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 162,66</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 127,54</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>8,87; 182,9</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>82,35; 358,99</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-1,22; 102,92</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>68,74; 317,92</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>5,82</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>5,93</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 3,42</t>
+          <t>-0,17; 3,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,09</t>
+          <t>0,48; 4,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,64</t>
+          <t>0,23; 3,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,5</t>
+          <t>3,47; 7,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,85</t>
+          <t>-0,66; 4,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,42</t>
+          <t>1,87; 6,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,71</t>
+          <t>-1,08; 2,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,76</t>
+          <t>-0,11; 3,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,36</t>
+          <t>-0,63; 3,03</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,2</t>
+          <t>4,01; 9,04</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,61</t>
+          <t>-0,05; 6,81</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,48</t>
+          <t>2,63; 8,89</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 2,61</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 3,21</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,91</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 7,69</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 5,24</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>2,9; 7,11</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>70,09%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>59,86%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>106,69%</t>
+          <t>163,07%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>58,91%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>40,74%</t>
+          <t>103,1%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>79,76%</t>
+          <t>57,82%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>41,01%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>33,35%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>124,16%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>26,88%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>58,23%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 122,35</t>
+          <t>-5,99; 133,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6,16; 148,76</t>
+          <t>8,42; 148,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,83; 135,88</t>
+          <t>1,59; 138,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>28,9; 202,64</t>
+          <t>68,8; 296,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 54,09</t>
+          <t>-6,33; 63,68</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 66,58</t>
+          <t>21,9; 114,62</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 51,63</t>
+          <t>-15,45; 50,03</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>28,24; 128,02</t>
+          <t>-2,03; 64,23</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 54,81</t>
+          <t>-9,66; 57,05</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>12,61; 76,2</t>
+          <t>57,51; 166,39</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>4,11; 60,41</t>
+          <t>-0,89; 63,17</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>39,03; 125,08</t>
+          <t>22,4; 100,73</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 62,54</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>11,44; 78,97</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 69,47</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>79,94; 180,68</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 54,39</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>30,7; 92,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
